--- a/SortingResearch/TimeResults0_50.xlsx
+++ b/SortingResearch/TimeResults0_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnatroshvili/CLionProjects/CPP_AaDS_private/SortingResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F92E673-00F3-5043-B723-384014C1A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27165FBB-3B33-6244-ABE5-9EDF61E22913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="28560" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23686,16 +23686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581841</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>31172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>248227</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>26554</xdr:rowOff>
+      <xdr:colOff>662270</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24550,8 +24550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="65" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AJ51" sqref="AJ51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="111" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
